--- a/result/cian_москва.xlsx
+++ b/result/cian_москва.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1862,7 +1862,6 @@
 Помещение находится в 2 минутах от метро "Волоколамская". Первая линия, интенсивный пешеходный трафик, густонаселенный жилой массив. Есть место для размещения вывеск...</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>Собственник</t>
@@ -1908,11 +1907,6 @@
           <t>6К1</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1948,7 +1942,6 @@
 В аренду предлагается уютное помещение на первом этаже в БЦ Сокольники, под общественное питание (столовая, кафе, пиццерия и т.д.), которое расположено в 5-ти минутах от метро на первой линии домо...</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
           <t>Собственник</t>
@@ -1994,11 +1987,955 @@
           <t>20С1</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>326398427</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>152 кв.м около м. Проспект мира</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>418000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>152</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/326398427/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Сдается помещение свободного назначения 152 кв.м., напрямую от собственника.
+Отдельный блок помещений со своим входом  с улицы и  второй вход в общие помещения всего бизнесцентра. Возможно под медицинский центр, офис и другое. 
+Долгосрочная аренда.
+Круглосуточная...</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ID 382467</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ЦАО</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>р-н Мещанский</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Проспект Мира</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>6минутпешком</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>улица Щепкина</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>58С3</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>326397512</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Свободного назначения 162 кв.м</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>210600</v>
+      </c>
+      <c r="E22" t="n">
+        <v>162</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/326397512/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Предлагается в аренду помещение свободного назначения на 2 этаже
+Плотная жилая застройка, торговая инфраструктура, высокий пешеходный и автомобильный трафик служат дополнительным преимуществом. 
+Видеонаблюдение, круглосуточная охрана, все коммуникации, электричес...</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Неизвестно</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ЮВАО</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>р-н Марьино</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Братиславская</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>11минутпешком</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Братиславская улица</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>325962803</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Офис 82 м² за 290 000 руб./мес.</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>290000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>82</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/325962803/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>" Сдается современное офисное помещение в элитной башне ""Федерация"" в Москва-Сити. БЕЗ КОМИССИИ ДЛЯ АРЕНДАТОРА 
+Основные Преимущества:
+ Расположение: самое сердце деловой Москвы, офис находится на территории Moscow City .
+ Прямая аренда от собственника: Гарант...</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>City Code</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ЦАО</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>р-н Пресненский</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Деловой центр</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1минутапешком</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>набережная Пресненская</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>281228400</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Офис 89 м2 на Рублевском шоссе</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>89</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/281228400/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Офисное помещение 89 м2 на 1 этаже 22 -этажного жилого дома на второй линии по Рублевскому шоссе кабинетной планировки с прекрасным евроремонтом.  В отделке применялись только высококачественные материалы. Подходит для размещения сотрудников компании, которая заб...</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Неизвестно</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ЗАО</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>р-н Кунцево</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Молодёжная</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>14минутпешком</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Рублевское шоссе</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>20К3</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>324668702</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Офис 89,8 м² за 319 000 руб./мес.</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>319000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/324668702/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Сдается современное офисное помещение в элитной башне ""Федерация"" в Москва-Сити. БЕЗ КОМИССИИ ДЛЯ АРЕНДАТОРА 
+Основные Преимущества:
+ Расположение: самое сердце деловой Москвы, офис находится на территории Moscow City .
+ Прямая аренда от собственника: Гарантия...</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>City Code</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ЦАО</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>р-н Пресненский</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Деловой центр</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1минутапешком</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>набережная Пресненская</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>326167180</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Первый дом от метро</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>69</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/326167180/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Сдается в аренду помещение свободного назначения 69 м² на первой фасадной линии непосредственно у ст. метро "Октябрьское поле". Супервысокий трафик и высокая покупательная способность населения. Рядом остановки общественного транспорта, интенсивный пешеходный и а...</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Неизвестно</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>СЗАО</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>р-н Щукино</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Октябрьское поле</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2минутыпешком</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>улица Маршала Бирюзова</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>313668350</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Торговый Центр "Вельё" (78,32м)</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>127270</v>
+      </c>
+      <c r="E27" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/313668350/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Торговый центр, находится на этапе строительства. Запланированный срок ввода в эксплуатацию июнь 2026 года.
+Будет расположен на первой линии Ленинградского шоссе, в районе деревни Черкизово, по направлению в область.
+Двухэтажное современное здание, общей площадью...</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Химки-Молжаниново</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>САО</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>р-н Молжаниновский</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Новоподрезково</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>5минутна транспорте</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Ленинградское шоссе</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>324665799</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Представительский офис</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>319584</v>
+      </c>
+      <c r="E28" t="n">
+        <v>130</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/324665799/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Комфортабельный мебелированный офис, 
+с Прекрасным видом на город.
+Пространство, разделено на три оборудованные зоны. 
+Большое фойе / ресепшен, 
+место ожидания. 
+Оборудованная кухня-столовая.
+Большое офисное пространство (open-space), 
+с дизайнерской, мебелью, о...</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ID 98861618</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ЦАО</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>р-н Красносельский</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Красносельская</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>9минутпешком</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Русаковская улица</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>306511757</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Торговые площадиМарт15 – 104,3 м²от125 000 ₽/мес.</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/306511757/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Собственник</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ВАО</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>р-н Соколиная гора</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Электрозаводская</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2минутыпешком</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Большая Семеновская улица</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>17А</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>326159742</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>сдам помещение 115 кв/м</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>115</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/326159742/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Сдаётся полностью готовый к работе продуктовый магазин.
+Можно заходить и начинать торговлю в день передачи.
+ Магазин полностью укомплектован, зонирован и выстроен по технологической схеме — всё оборудование, холодильники, витрины, стеллажи и кассовая зона уже ст...</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Неизвестно</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ЮЗАО</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>р-н Южное Бутово</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Щербинка</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>19минутпешком</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>улица Захарьинские Дворики</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cian</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>319398793</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Свободного назначения, 100.6 м²</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.cian.ru/rent/commercial/319398793/?mlSearchSessionGuid=02cac3c62eb5bd4beb5d9e838a2d08d3</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Помещение свободного назначения 100,6 м2, большая площадь, цокольный этаж, отдельный вход.
+От собственника, прямая аренда без комиссии.
+ТЕХНИЧЕСКИЕ УСЛОВИЯ
+ Бесплатная парковка
+ Отдельный вход
+ Водоснабжение, теплоснабжение, канализация
+ Площадь 100,6 кв.м
+ Мок...</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Собственник</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ЮАО</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>р-н Даниловский</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Шаболовская</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>7минутпешком</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>улица Лестева</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>21К2</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
